--- a/bin/TestData/TestData.xlsx
+++ b/bin/TestData/TestData.xlsx
@@ -110,7 +110,7 @@
     <t>Kelvin</t>
   </si>
   <si>
-    <t>edgar_kanne_3@leeching.net</t>
+    <t>edgar_kanne_4@leeching.net</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bin/TestData/TestData.xlsx
+++ b/bin/TestData/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="32">
   <si>
     <t>First name</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Crowan, Kenneth W Esq</t>
   </si>
   <si>
-    <t>Edgar_kanne</t>
-  </si>
-  <si>
     <t>123test456</t>
   </si>
   <si>
@@ -104,13 +101,25 @@
     <t>validationcheck</t>
   </si>
   <si>
-    <t>edgar_kanne_2</t>
-  </si>
-  <si>
     <t>Kelvin</t>
   </si>
   <si>
-    <t>edgar_kanne_4@leeching.net</t>
+    <t>charles@leeching.net</t>
+  </si>
+  <si>
+    <t>charles</t>
+  </si>
+  <si>
+    <t>charles_2</t>
+  </si>
+  <si>
+    <t>charles123</t>
+  </si>
+  <si>
+    <t>Edgar123</t>
+  </si>
+  <si>
+    <t>Kanne123</t>
   </si>
 </sst>
 </file>
@@ -484,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,10 +563,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>15</v>
@@ -569,39 +578,39 @@
         <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -613,39 +622,39 @@
         <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>15</v>
@@ -657,42 +666,42 @@
         <v>17</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -701,42 +710,42 @@
         <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>15</v>
@@ -745,42 +754,42 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>15</v>
@@ -792,28 +801,28 @@
         <v>17</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -824,13 +833,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>15</v>
@@ -842,39 +851,39 @@
         <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>15</v>
@@ -886,39 +895,39 @@
         <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>15</v>
@@ -930,39 +939,39 @@
         <v>17</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
@@ -974,40 +983,40 @@
         <v>17</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>15</v>
@@ -1019,40 +1028,40 @@
         <v>17</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>15</v>
@@ -1064,40 +1073,40 @@
         <v>17</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>15</v>
@@ -1109,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>15</v>
@@ -1154,36 +1163,36 @@
         <v>17</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1201,42 +1210,42 @@
         <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>15</v>
@@ -1248,42 +1257,42 @@
         <v>17</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>15</v>
@@ -1295,42 +1304,42 @@
         <v>17</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="N19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
@@ -1342,42 +1351,42 @@
         <v>17</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O20" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
@@ -1389,36 +1398,36 @@
         <v>17</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B22" s="7">
         <v>1234567890</v>
@@ -1436,42 +1445,42 @@
         <v>17</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>15</v>
@@ -1483,42 +1492,173 @@
         <v>17</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M25" s="9"/>
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M26" s="9"/>
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M27" s="9"/>
@@ -1571,8 +1711,14 @@
     <hyperlink ref="O21" r:id="rId41" display="https://fakenumber.org/phone/03069-990061"/>
     <hyperlink ref="N22" r:id="rId42" display="https://fakenumber.org/phone/03069-990061"/>
     <hyperlink ref="O22" r:id="rId43" display="https://fakenumber.org/phone/03069-990061"/>
+    <hyperlink ref="N24" r:id="rId44" display="https://fakenumber.org/phone/03069-990061"/>
+    <hyperlink ref="O24" r:id="rId45" display="https://fakenumber.org/phone/03069-990061"/>
+    <hyperlink ref="N25" r:id="rId46" display="https://fakenumber.org/phone/03069-990061"/>
+    <hyperlink ref="O25" r:id="rId47" display="https://fakenumber.org/phone/03069-990061"/>
+    <hyperlink ref="N26" r:id="rId48" display="https://fakenumber.org/phone/03069-990061"/>
+    <hyperlink ref="O26" r:id="rId49" display="https://fakenumber.org/phone/03069-990061"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>